--- a/biology/Zoologie/Characoma_stictigrapta/Characoma_stictigrapta.xlsx
+++ b/biology/Zoologie/Characoma_stictigrapta/Characoma_stictigrapta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Characoma stictigrapta (noctuelle du cacao) est une espèce d'insectes de l'ordre des lépidoptères (papillons), de la famille des Nolidae, originaire d'Afrique.
 </t>
@@ -511,11 +523,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition de Characoma stictigrapta se limite à l'Afrique subsaharienne, en particulier en Afrique occidentale et centrale.
 Elle comprend notamment les pays suivants :
-Afrique du Sud, Cameroun, Congo-Kinshasa, Côte d'Ivoire, Ghana, Guinée, Nigeria[1].
+Afrique du Sud, Cameroun, Congo-Kinshasa, Côte d'Ivoire, Ghana, Guinée, Nigeria.
 </t>
         </is>
       </c>
@@ -546,8 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de Characoma stictigrapta se limitent à la famille des Malvaceae, notamment dans les genres Cola, Sterculia et Theobroma (cacaoyer)[1].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de Characoma stictigrapta se limitent à la famille des Malvaceae, notamment dans les genres Cola, Sterculia et Theobroma (cacaoyer).
 </t>
         </is>
       </c>
